--- a/Data_and_code/metaData/finalMetaData.xlsx
+++ b/Data_and_code/metaData/finalMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/CharacterStrengths/MetaAnalisi/MetaCS_WB_MH/Manuscript/analisi/CSmetaAnalysis/Data_and_code/metaData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="11_D69DDEDE8F79A8D366075C52F37BD2722A48E219" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB01116E-86D6-4205-87FA-8836D87251AC}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="11_D69DDEDE8F79A8D366075C52F37BD2722A48E219" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6B3A28-2398-4DC3-B30A-E6D13720BF57}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12630" yWindow="375" windowWidth="16170" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4294,24 +4294,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4332,9 +4320,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4642,12 +4632,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z260" sqref="Z260"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4725,7 +4718,7 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1413</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -4871,7 +4864,7 @@
       <c r="Y2" t="s">
         <v>69</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <v>0.83</v>
       </c>
       <c r="AC2">
@@ -4954,7 +4947,7 @@
       <c r="Y3" t="s">
         <v>69</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <v>0.87</v>
       </c>
       <c r="AC3">
@@ -5037,7 +5030,7 @@
       <c r="Y4" t="s">
         <v>69</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="4">
         <v>0.83</v>
       </c>
       <c r="AC4">
@@ -5123,7 +5116,7 @@
       <c r="Y5" t="s">
         <v>69</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="4">
         <v>0.87</v>
       </c>
       <c r="AC5">
@@ -5200,7 +5193,7 @@
       <c r="Y6" t="s">
         <v>69</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="4">
         <v>0.86</v>
       </c>
       <c r="AI6">
@@ -5277,7 +5270,7 @@
       <c r="Y7" t="s">
         <v>69</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <v>0.91</v>
       </c>
       <c r="AI7">
@@ -5354,7 +5347,7 @@
       <c r="Y8" t="s">
         <v>69</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="4">
         <v>0.88</v>
       </c>
       <c r="AI8">
@@ -5431,7 +5424,7 @@
       <c r="Y9" t="s">
         <v>69</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="4">
         <v>0.88</v>
       </c>
       <c r="AI9">
@@ -5505,7 +5498,7 @@
       <c r="Y10" t="s">
         <v>116</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="4">
         <v>0.93</v>
       </c>
       <c r="AA10">
@@ -5648,7 +5641,7 @@
       <c r="Y11" t="s">
         <v>116</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="4">
         <v>0.92</v>
       </c>
       <c r="AA11">
@@ -5788,7 +5781,7 @@
       <c r="Y12" t="s">
         <v>69</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="4">
         <v>0.85</v>
       </c>
       <c r="AG12">
@@ -5859,7 +5852,7 @@
       <c r="Y13" t="s">
         <v>116</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="4">
         <v>0.9</v>
       </c>
       <c r="AG13">
@@ -5930,7 +5923,7 @@
       <c r="Y14" t="s">
         <v>116</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="4">
         <v>0.85</v>
       </c>
       <c r="AG14">
@@ -6001,7 +5994,7 @@
       <c r="Y15" t="s">
         <v>116</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="4">
         <v>0.8</v>
       </c>
       <c r="AG15">
@@ -6078,7 +6071,7 @@
       <c r="Y16" t="s">
         <v>116</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="4">
         <v>0.81</v>
       </c>
       <c r="AA16">
@@ -6224,7 +6217,7 @@
       <c r="Y17" t="s">
         <v>69</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="4">
         <v>0.99</v>
       </c>
       <c r="AA17">
@@ -6367,7 +6360,7 @@
       <c r="Y18" t="s">
         <v>69</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="4">
         <v>0.83</v>
       </c>
       <c r="AA18">
@@ -6510,7 +6503,7 @@
       <c r="Y19" t="s">
         <v>116</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="4">
         <v>0.85</v>
       </c>
       <c r="AG19">
@@ -6587,7 +6580,7 @@
       <c r="Y20" t="s">
         <v>69</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="4">
         <v>0.75</v>
       </c>
       <c r="AG20">
@@ -6661,7 +6654,7 @@
       <c r="Y21" t="s">
         <v>116</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="4">
         <v>0.86</v>
       </c>
       <c r="AC21">
@@ -6735,7 +6728,7 @@
       <c r="Y22" t="s">
         <v>116</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="4">
         <v>0.89</v>
       </c>
       <c r="AC22">
@@ -6809,7 +6802,7 @@
       <c r="Y23" t="s">
         <v>116</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="4">
         <v>0.89</v>
       </c>
       <c r="AC23">
@@ -6886,7 +6879,7 @@
       <c r="Y24" t="s">
         <v>116</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="4">
         <v>0.81</v>
       </c>
       <c r="AA24">
@@ -7032,7 +7025,7 @@
       <c r="Y25" t="s">
         <v>69</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="4">
         <v>0.99</v>
       </c>
       <c r="AA25">
@@ -7172,7 +7165,7 @@
       <c r="Y26" t="s">
         <v>69</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="4">
         <v>0.76</v>
       </c>
       <c r="AA26">
@@ -7315,7 +7308,7 @@
       <c r="Y27" t="s">
         <v>69</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="4">
         <v>0.84</v>
       </c>
       <c r="AA27">
@@ -7458,7 +7451,7 @@
       <c r="Y28" t="s">
         <v>69</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="4">
         <v>0.85</v>
       </c>
       <c r="AD28">
@@ -7541,7 +7534,7 @@
       <c r="Y29" t="s">
         <v>116</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="4">
         <v>0.86</v>
       </c>
       <c r="AD29">
@@ -7624,7 +7617,7 @@
       <c r="Y30" t="s">
         <v>69</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="4">
         <v>0.72</v>
       </c>
       <c r="AD30">
@@ -7710,7 +7703,7 @@
       <c r="Y31" t="s">
         <v>69</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="4">
         <v>0.86</v>
       </c>
       <c r="AD31">
@@ -7796,7 +7789,7 @@
       <c r="Y32" t="s">
         <v>69</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="4">
         <v>0.87</v>
       </c>
       <c r="AD32">
@@ -7876,7 +7869,7 @@
       <c r="Y33" t="s">
         <v>69</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="4">
         <v>0.91</v>
       </c>
       <c r="AE33">
@@ -7956,7 +7949,7 @@
       <c r="Y34" t="s">
         <v>69</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="4">
         <v>0.85</v>
       </c>
       <c r="AE34">
@@ -8036,7 +8029,7 @@
       <c r="Y35" t="s">
         <v>69</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="4">
         <v>0.81</v>
       </c>
       <c r="AG35">
@@ -8110,7 +8103,7 @@
       <c r="Y36" t="s">
         <v>69</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="4">
         <v>0.63</v>
       </c>
       <c r="AG36">
@@ -8184,7 +8177,7 @@
       <c r="Y37" t="s">
         <v>69</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="4">
         <v>0.97</v>
       </c>
       <c r="AT37">
@@ -8261,7 +8254,7 @@
       <c r="Y38" t="s">
         <v>116</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="4">
         <v>0.96</v>
       </c>
       <c r="AT38">
@@ -8335,7 +8328,7 @@
       <c r="Y39" t="s">
         <v>116</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="4">
         <v>0.93</v>
       </c>
       <c r="AT39">
@@ -8409,7 +8402,6 @@
       <c r="Y40" t="s">
         <v>69</v>
       </c>
-      <c r="Z40" s="3"/>
       <c r="AA40">
         <v>0.24</v>
       </c>
@@ -8550,7 +8542,6 @@
       <c r="Y41" t="s">
         <v>116</v>
       </c>
-      <c r="Z41" s="3"/>
       <c r="AA41">
         <v>0.12</v>
       </c>
@@ -8691,7 +8682,6 @@
       <c r="Y42" t="s">
         <v>69</v>
       </c>
-      <c r="Z42" s="3"/>
       <c r="AA42">
         <v>0.39</v>
       </c>
@@ -8829,7 +8819,7 @@
       <c r="Y43" t="s">
         <v>69</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="4">
         <v>0.9</v>
       </c>
       <c r="AG43">
@@ -8903,7 +8893,7 @@
       <c r="Y44" t="s">
         <v>69</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="4">
         <v>0.92</v>
       </c>
       <c r="AA44">
@@ -9049,7 +9039,7 @@
       <c r="Y45" t="s">
         <v>69</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="4">
         <v>0.92</v>
       </c>
       <c r="AA45">
@@ -9195,7 +9185,7 @@
       <c r="Y46" t="s">
         <v>69</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="4">
         <v>0.92</v>
       </c>
       <c r="AA46">
@@ -9338,7 +9328,7 @@
       <c r="Y47" t="s">
         <v>116</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="4">
         <v>0.92</v>
       </c>
       <c r="AA47">
@@ -9481,7 +9471,7 @@
       <c r="Y48" t="s">
         <v>69</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="4">
         <v>0.92</v>
       </c>
       <c r="AA48">
@@ -9624,7 +9614,7 @@
       <c r="Y49" t="s">
         <v>69</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="4">
         <v>0.92</v>
       </c>
       <c r="AA49">
@@ -9770,7 +9760,7 @@
       <c r="Y50" t="s">
         <v>69</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="4">
         <v>0.92</v>
       </c>
       <c r="AA50">
@@ -9913,7 +9903,7 @@
       <c r="Y51" t="s">
         <v>69</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="4">
         <v>0.86</v>
       </c>
       <c r="AD51">
@@ -10005,7 +9995,7 @@
       <c r="Y52" t="s">
         <v>69</v>
       </c>
-      <c r="Z52">
+      <c r="Z52" s="4">
         <v>0.88</v>
       </c>
       <c r="AA52">
@@ -10148,7 +10138,7 @@
       <c r="Y53" t="s">
         <v>69</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="4">
         <v>0.92</v>
       </c>
       <c r="AA53">
@@ -10291,7 +10281,7 @@
       <c r="Y54" t="s">
         <v>116</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="4">
         <v>0.89</v>
       </c>
       <c r="AA54">
@@ -10434,7 +10424,7 @@
       <c r="Y55" t="s">
         <v>69</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="4">
         <v>0.79</v>
       </c>
       <c r="AA55">
@@ -10577,7 +10567,7 @@
       <c r="Y56" t="s">
         <v>69</v>
       </c>
-      <c r="Z56">
+      <c r="Z56" s="4">
         <v>0.84</v>
       </c>
       <c r="AA56">
@@ -10720,7 +10710,7 @@
       <c r="Y57" t="s">
         <v>116</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="4">
         <v>0.83</v>
       </c>
       <c r="AA57">
@@ -10866,7 +10856,6 @@
       <c r="Y58" t="s">
         <v>116</v>
       </c>
-      <c r="Z58" s="3"/>
       <c r="AF58">
         <v>0.22</v>
       </c>
@@ -10941,7 +10930,6 @@
       <c r="Y59" t="s">
         <v>116</v>
       </c>
-      <c r="Z59" s="3"/>
       <c r="AF59">
         <v>0.17</v>
       </c>
@@ -11013,7 +11001,6 @@
       <c r="Y60" t="s">
         <v>69</v>
       </c>
-      <c r="Z60" s="3"/>
       <c r="AA60">
         <v>0.28000000000000003</v>
       </c>
@@ -11157,7 +11144,6 @@
       <c r="Y61" t="s">
         <v>69</v>
       </c>
-      <c r="Z61" s="3"/>
       <c r="AA61">
         <v>0.19</v>
       </c>
@@ -11298,7 +11284,7 @@
       <c r="Y62" t="s">
         <v>69</v>
       </c>
-      <c r="Z62">
+      <c r="Z62" s="4">
         <v>0.54</v>
       </c>
       <c r="AJ62">
@@ -11372,7 +11358,7 @@
       <c r="Y63" t="s">
         <v>116</v>
       </c>
-      <c r="Z63">
+      <c r="Z63" s="4">
         <v>0.86</v>
       </c>
       <c r="AJ63">
@@ -11449,7 +11435,7 @@
       <c r="Y64" t="s">
         <v>69</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="4">
         <v>0.77</v>
       </c>
       <c r="AF64">
@@ -11517,7 +11503,6 @@
       <c r="Y65" t="s">
         <v>69</v>
       </c>
-      <c r="Z65" s="3"/>
       <c r="AA65">
         <v>0.22</v>
       </c>
@@ -11652,7 +11637,6 @@
       <c r="Y66" t="s">
         <v>69</v>
       </c>
-      <c r="Z66" s="3"/>
       <c r="AA66">
         <v>0.22</v>
       </c>
@@ -11796,7 +11780,6 @@
       <c r="Y67" t="s">
         <v>69</v>
       </c>
-      <c r="Z67" s="3"/>
       <c r="AA67">
         <v>0.12</v>
       </c>
@@ -11940,7 +11923,6 @@
       <c r="Y68" t="s">
         <v>69</v>
       </c>
-      <c r="Z68" s="3"/>
       <c r="AA68">
         <v>0.11</v>
       </c>
@@ -12084,7 +12066,6 @@
       <c r="Y69" t="s">
         <v>69</v>
       </c>
-      <c r="Z69" s="3"/>
       <c r="AA69">
         <v>0.05</v>
       </c>
@@ -12228,7 +12209,6 @@
       <c r="Y70" t="s">
         <v>69</v>
       </c>
-      <c r="Z70" s="3"/>
       <c r="AA70">
         <v>0.06</v>
       </c>
@@ -12372,7 +12352,6 @@
       <c r="Y71" t="s">
         <v>69</v>
       </c>
-      <c r="Z71" s="3"/>
       <c r="AA71">
         <v>0.13</v>
       </c>
@@ -12516,7 +12495,6 @@
       <c r="Y72" t="s">
         <v>69</v>
       </c>
-      <c r="Z72" s="3"/>
       <c r="AA72">
         <v>0.08</v>
       </c>
@@ -12663,7 +12641,7 @@
       <c r="Y73" t="s">
         <v>69</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" s="4">
         <v>0.86</v>
       </c>
       <c r="AF73">
@@ -12737,7 +12715,7 @@
       <c r="Y74" t="s">
         <v>69</v>
       </c>
-      <c r="Z74">
+      <c r="Z74" s="4">
         <v>0.89</v>
       </c>
       <c r="AA74">
@@ -12880,7 +12858,7 @@
       <c r="Y75" t="s">
         <v>116</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="4">
         <v>0.91</v>
       </c>
       <c r="AA75">
@@ -13023,7 +13001,7 @@
       <c r="Y76" t="s">
         <v>69</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" s="4">
         <v>0.89</v>
       </c>
       <c r="AA76">
@@ -13172,7 +13150,7 @@
       <c r="Y77" t="s">
         <v>69</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" s="4">
         <v>0.9</v>
       </c>
       <c r="AA77">
@@ -13321,7 +13299,7 @@
       <c r="Y78" t="s">
         <v>69</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="4">
         <v>0.8</v>
       </c>
       <c r="AA78">
@@ -13464,7 +13442,7 @@
       <c r="Y79" t="s">
         <v>69</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="4">
         <v>0.85</v>
       </c>
       <c r="AA79">
@@ -13607,7 +13585,7 @@
       <c r="Y80" t="s">
         <v>69</v>
       </c>
-      <c r="Z80">
+      <c r="Z80" s="4">
         <v>0.81</v>
       </c>
       <c r="AA80">
@@ -13750,7 +13728,7 @@
       <c r="Y81" t="s">
         <v>116</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="4">
         <v>0.84</v>
       </c>
       <c r="AA81">
@@ -13896,7 +13874,7 @@
       <c r="Y82" t="s">
         <v>69</v>
       </c>
-      <c r="Z82">
+      <c r="Z82" s="4">
         <v>0.86</v>
       </c>
       <c r="AF82">
@@ -13994,7 +13972,7 @@
       <c r="Y83" t="s">
         <v>69</v>
       </c>
-      <c r="Z83">
+      <c r="Z83" s="4">
         <v>0.75</v>
       </c>
       <c r="AF83">
@@ -14092,7 +14070,7 @@
       <c r="Y84" t="s">
         <v>116</v>
       </c>
-      <c r="Z84">
+      <c r="Z84" s="4">
         <v>0.76</v>
       </c>
       <c r="AF84">
@@ -14190,7 +14168,7 @@
       <c r="Y85" t="s">
         <v>69</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="4">
         <v>0.91</v>
       </c>
       <c r="AF85">
@@ -14285,7 +14263,7 @@
       <c r="Y86" t="s">
         <v>69</v>
       </c>
-      <c r="Z86">
+      <c r="Z86" s="4">
         <v>0.88</v>
       </c>
       <c r="AU86">
@@ -14359,7 +14337,7 @@
       <c r="Y87" t="s">
         <v>69</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="4">
         <v>0.92</v>
       </c>
       <c r="AU87">
@@ -14433,7 +14411,7 @@
       <c r="Y88" t="s">
         <v>116</v>
       </c>
-      <c r="Z88">
+      <c r="Z88" s="4">
         <v>0.89</v>
       </c>
       <c r="AU88">
@@ -14507,7 +14485,7 @@
       <c r="Y89" t="s">
         <v>116</v>
       </c>
-      <c r="Z89">
+      <c r="Z89" s="4">
         <v>0.83</v>
       </c>
       <c r="AU89">
@@ -14578,7 +14556,7 @@
       <c r="Y90" t="s">
         <v>69</v>
       </c>
-      <c r="Z90">
+      <c r="Z90" s="4">
         <v>0.8</v>
       </c>
       <c r="AD90">
@@ -14661,7 +14639,7 @@
       <c r="Y91" t="s">
         <v>69</v>
       </c>
-      <c r="Z91">
+      <c r="Z91" s="4">
         <v>0.81</v>
       </c>
       <c r="AD91">
@@ -14744,7 +14722,7 @@
       <c r="Y92" t="s">
         <v>116</v>
       </c>
-      <c r="Z92">
+      <c r="Z92" s="4">
         <v>0.88</v>
       </c>
       <c r="AD92">
@@ -14827,7 +14805,7 @@
       <c r="Y93" t="s">
         <v>69</v>
       </c>
-      <c r="Z93">
+      <c r="Z93" s="4">
         <v>0.81</v>
       </c>
       <c r="AD93">
@@ -14913,7 +14891,7 @@
       <c r="Y94" t="s">
         <v>69</v>
       </c>
-      <c r="Z94">
+      <c r="Z94" s="4">
         <v>0.87</v>
       </c>
       <c r="AD94">
@@ -15002,7 +14980,7 @@
       <c r="Y95" t="s">
         <v>69</v>
       </c>
-      <c r="Z95">
+      <c r="Z95" s="4">
         <v>0.76</v>
       </c>
       <c r="AA95">
@@ -15148,7 +15126,7 @@
       <c r="Y96" t="s">
         <v>69</v>
       </c>
-      <c r="Z96">
+      <c r="Z96" s="4">
         <v>0.71</v>
       </c>
       <c r="AA96">
@@ -15291,7 +15269,7 @@
       <c r="Y97" t="s">
         <v>69</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="4">
         <v>0.89</v>
       </c>
       <c r="AA97">
@@ -15434,7 +15412,7 @@
       <c r="Y98" t="s">
         <v>69</v>
       </c>
-      <c r="Z98">
+      <c r="Z98" s="4">
         <v>0.89</v>
       </c>
       <c r="AA98">
@@ -15580,7 +15558,7 @@
       <c r="Y99" t="s">
         <v>69</v>
       </c>
-      <c r="Z99">
+      <c r="Z99" s="4">
         <v>0.82</v>
       </c>
       <c r="AA99">
@@ -15723,7 +15701,7 @@
       <c r="Y100" t="s">
         <v>69</v>
       </c>
-      <c r="Z100">
+      <c r="Z100" s="4">
         <v>0.85</v>
       </c>
       <c r="AA100">
@@ -15866,7 +15844,7 @@
       <c r="Y101" t="s">
         <v>69</v>
       </c>
-      <c r="Z101">
+      <c r="Z101" s="4">
         <v>0.9</v>
       </c>
       <c r="AA101">
@@ -16009,7 +15987,7 @@
       <c r="Y102" t="s">
         <v>69</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="4">
         <v>0.9</v>
       </c>
       <c r="AA102">
@@ -16152,7 +16130,7 @@
       <c r="Y103" t="s">
         <v>69</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="4">
         <v>0.82</v>
       </c>
       <c r="AA103">
@@ -16295,7 +16273,7 @@
       <c r="Y104" t="s">
         <v>69</v>
       </c>
-      <c r="Z104">
+      <c r="Z104" s="4">
         <v>0.81</v>
       </c>
       <c r="AA104">
@@ -16441,7 +16419,7 @@
       <c r="Y105" t="s">
         <v>69</v>
       </c>
-      <c r="Z105">
+      <c r="Z105" s="4">
         <v>0.81</v>
       </c>
       <c r="AA105">
@@ -16584,7 +16562,7 @@
       <c r="Y106" t="s">
         <v>69</v>
       </c>
-      <c r="Z106">
+      <c r="Z106" s="4">
         <v>0.84</v>
       </c>
       <c r="AA106">
@@ -16727,7 +16705,7 @@
       <c r="Y107" t="s">
         <v>116</v>
       </c>
-      <c r="Z107">
+      <c r="Z107" s="4">
         <v>0.75</v>
       </c>
       <c r="AA107">
@@ -16870,7 +16848,7 @@
       <c r="Y108" t="s">
         <v>69</v>
       </c>
-      <c r="Z108">
+      <c r="Z108" s="4">
         <v>0.78</v>
       </c>
       <c r="AA108">
@@ -17016,7 +16994,7 @@
       <c r="Y109" t="s">
         <v>69</v>
       </c>
-      <c r="Z109" s="2">
+      <c r="Z109" s="4">
         <v>0.65</v>
       </c>
       <c r="AF109">
@@ -17111,7 +17089,7 @@
       <c r="Y110" t="s">
         <v>116</v>
       </c>
-      <c r="Z110">
+      <c r="Z110" s="4">
         <v>0.87</v>
       </c>
       <c r="AF110">
@@ -17200,7 +17178,7 @@
       <c r="Y111" t="s">
         <v>69</v>
       </c>
-      <c r="Z111">
+      <c r="Z111" s="4">
         <v>0.81</v>
       </c>
       <c r="AA111">
@@ -17343,7 +17321,7 @@
       <c r="Y112" t="s">
         <v>69</v>
       </c>
-      <c r="Z112">
+      <c r="Z112" s="4">
         <v>0.86</v>
       </c>
       <c r="AI112">
@@ -17423,7 +17401,7 @@
       <c r="Y113" t="s">
         <v>69</v>
       </c>
-      <c r="Z113">
+      <c r="Z113" s="4">
         <v>0.95</v>
       </c>
       <c r="AA113">
@@ -17566,7 +17544,7 @@
       <c r="Y114" t="s">
         <v>69</v>
       </c>
-      <c r="Z114">
+      <c r="Z114" s="4">
         <v>0.94</v>
       </c>
       <c r="AA114">
@@ -17709,7 +17687,7 @@
       <c r="Y115" t="s">
         <v>69</v>
       </c>
-      <c r="Z115">
+      <c r="Z115" s="4">
         <v>0.94</v>
       </c>
       <c r="AA115">
@@ -17852,7 +17830,7 @@
       <c r="Y116" t="s">
         <v>116</v>
       </c>
-      <c r="Z116">
+      <c r="Z116" s="4">
         <v>0.9</v>
       </c>
       <c r="AA116">
@@ -17995,7 +17973,7 @@
       <c r="Y117" t="s">
         <v>69</v>
       </c>
-      <c r="Z117">
+      <c r="Z117" s="4">
         <v>0.87</v>
       </c>
       <c r="AA117">
@@ -18138,7 +18116,7 @@
       <c r="Y118" t="s">
         <v>69</v>
       </c>
-      <c r="Z118">
+      <c r="Z118" s="4">
         <v>0.87</v>
       </c>
       <c r="AA118">
@@ -18284,7 +18262,7 @@
       <c r="Y119" t="s">
         <v>69</v>
       </c>
-      <c r="Z119">
+      <c r="Z119" s="4">
         <v>0.83</v>
       </c>
       <c r="AA119">
@@ -18427,7 +18405,7 @@
       <c r="Y120" t="s">
         <v>69</v>
       </c>
-      <c r="Z120">
+      <c r="Z120" s="4">
         <v>0.87</v>
       </c>
       <c r="AA120">
@@ -18573,7 +18551,7 @@
       <c r="Y121" t="s">
         <v>69</v>
       </c>
-      <c r="Z121">
+      <c r="Z121" s="4">
         <v>0.84</v>
       </c>
       <c r="AA121">
@@ -18716,7 +18694,7 @@
       <c r="Y122" t="s">
         <v>69</v>
       </c>
-      <c r="Z122" s="2">
+      <c r="Z122" s="4">
         <v>0.8</v>
       </c>
       <c r="AA122">
@@ -18859,7 +18837,7 @@
       <c r="Y123" t="s">
         <v>69</v>
       </c>
-      <c r="Z123">
+      <c r="Z123" s="4">
         <v>0.85</v>
       </c>
       <c r="AK123">
@@ -18933,7 +18911,7 @@
       <c r="Y124" t="s">
         <v>116</v>
       </c>
-      <c r="Z124">
+      <c r="Z124" s="4">
         <v>0.84</v>
       </c>
       <c r="AK124">
@@ -19007,7 +18985,7 @@
       <c r="Y125" t="s">
         <v>69</v>
       </c>
-      <c r="Z125">
+      <c r="Z125" s="4">
         <v>0.85</v>
       </c>
       <c r="AK125">
@@ -19081,7 +19059,6 @@
       <c r="Y126" t="s">
         <v>69</v>
       </c>
-      <c r="Z126" s="3"/>
       <c r="AA126">
         <v>0.12</v>
       </c>
@@ -19222,7 +19199,6 @@
       <c r="Y127" t="s">
         <v>69</v>
       </c>
-      <c r="Z127" s="3"/>
       <c r="AA127">
         <v>0.1</v>
       </c>
@@ -19363,7 +19339,7 @@
       <c r="Y128" t="s">
         <v>69</v>
       </c>
-      <c r="Z128">
+      <c r="Z128" s="4">
         <v>0.87</v>
       </c>
       <c r="AA128">
@@ -19503,7 +19479,7 @@
       <c r="Y129" t="s">
         <v>69</v>
       </c>
-      <c r="Z129">
+      <c r="Z129" s="4">
         <v>0.86</v>
       </c>
       <c r="AA129">
@@ -19646,7 +19622,7 @@
       <c r="Y130" t="s">
         <v>116</v>
       </c>
-      <c r="Z130">
+      <c r="Z130" s="4">
         <v>0.89</v>
       </c>
       <c r="AA130">
@@ -19789,7 +19765,7 @@
       <c r="Y131" t="s">
         <v>69</v>
       </c>
-      <c r="Z131">
+      <c r="Z131" s="4">
         <v>0.77</v>
       </c>
       <c r="AA131">
@@ -19935,7 +19911,7 @@
       <c r="Y132" t="s">
         <v>69</v>
       </c>
-      <c r="Z132">
+      <c r="Z132" s="4">
         <v>0.68</v>
       </c>
       <c r="AA132">
@@ -20081,7 +20057,7 @@
       <c r="Y133" t="s">
         <v>116</v>
       </c>
-      <c r="Z133">
+      <c r="Z133" s="4">
         <v>0.61</v>
       </c>
       <c r="AA133">
@@ -20224,7 +20200,7 @@
       <c r="Y134" t="s">
         <v>69</v>
       </c>
-      <c r="Z134">
+      <c r="Z134" s="4">
         <v>0.88</v>
       </c>
       <c r="AA134">
@@ -20367,7 +20343,7 @@
       <c r="Y135" t="s">
         <v>69</v>
       </c>
-      <c r="Z135">
+      <c r="Z135" s="4">
         <v>0.88</v>
       </c>
       <c r="AA135">
@@ -20510,7 +20486,7 @@
       <c r="Y136" t="s">
         <v>69</v>
       </c>
-      <c r="Z136">
+      <c r="Z136" s="4">
         <v>0.92</v>
       </c>
       <c r="AA136">
@@ -20653,7 +20629,7 @@
       <c r="Y137" t="s">
         <v>69</v>
       </c>
-      <c r="Z137">
+      <c r="Z137" s="4">
         <v>0.92</v>
       </c>
       <c r="AA137">
@@ -20796,7 +20772,7 @@
       <c r="Y138" t="s">
         <v>116</v>
       </c>
-      <c r="Z138">
+      <c r="Z138" s="4">
         <v>0.89</v>
       </c>
       <c r="AA138">
@@ -20939,7 +20915,7 @@
       <c r="Y139" t="s">
         <v>116</v>
       </c>
-      <c r="Z139">
+      <c r="Z139" s="4">
         <v>0.89</v>
       </c>
       <c r="AA139">
@@ -21082,7 +21058,7 @@
       <c r="Y140" t="s">
         <v>69</v>
       </c>
-      <c r="Z140">
+      <c r="Z140" s="4">
         <v>0.81</v>
       </c>
       <c r="AA140">
@@ -21225,7 +21201,7 @@
       <c r="Y141" t="s">
         <v>69</v>
       </c>
-      <c r="Z141">
+      <c r="Z141" s="4">
         <v>0.81</v>
       </c>
       <c r="AA141">
@@ -21368,7 +21344,7 @@
       <c r="Y142" t="s">
         <v>69</v>
       </c>
-      <c r="Z142">
+      <c r="Z142" s="4">
         <v>0.76</v>
       </c>
       <c r="AA142">
@@ -21511,7 +21487,7 @@
       <c r="Y143" t="s">
         <v>69</v>
       </c>
-      <c r="Z143">
+      <c r="Z143" s="4">
         <v>0.76</v>
       </c>
       <c r="AA143">
@@ -21654,7 +21630,7 @@
       <c r="Y144" t="s">
         <v>116</v>
       </c>
-      <c r="Z144">
+      <c r="Z144" s="4">
         <v>0.78</v>
       </c>
       <c r="AA144">
@@ -21797,7 +21773,7 @@
       <c r="Y145" t="s">
         <v>116</v>
       </c>
-      <c r="Z145">
+      <c r="Z145" s="4">
         <v>0.78</v>
       </c>
       <c r="AA145">
@@ -21937,7 +21913,6 @@
       <c r="Y146" t="s">
         <v>69</v>
       </c>
-      <c r="Z146" s="3"/>
       <c r="AA146">
         <v>0.46800000000000003</v>
       </c>
@@ -22075,7 +22050,6 @@
       <c r="Y147" t="s">
         <v>116</v>
       </c>
-      <c r="Z147" s="3"/>
       <c r="AA147">
         <v>-2.5999999999999999E-2</v>
       </c>
@@ -22213,7 +22187,6 @@
       <c r="Y148" t="s">
         <v>69</v>
       </c>
-      <c r="Z148" s="3"/>
       <c r="AA148">
         <v>0.34300000000000003</v>
       </c>
@@ -22354,7 +22327,6 @@
       <c r="Y149" t="s">
         <v>69</v>
       </c>
-      <c r="Z149" s="3"/>
       <c r="AA149">
         <v>0.39100000000000001</v>
       </c>
@@ -22495,7 +22467,6 @@
       <c r="Y150" t="s">
         <v>69</v>
       </c>
-      <c r="Z150" s="3"/>
       <c r="AA150">
         <v>0.27</v>
       </c>
@@ -22588,7 +22559,6 @@
       <c r="Y151" t="s">
         <v>116</v>
       </c>
-      <c r="Z151" s="3"/>
       <c r="AA151">
         <v>-0.03</v>
       </c>
@@ -22681,7 +22651,6 @@
       <c r="Y152" t="s">
         <v>69</v>
       </c>
-      <c r="Z152" s="3"/>
       <c r="AA152">
         <v>0.55000000000000004</v>
       </c>
@@ -22774,7 +22743,7 @@
       <c r="Y153" t="s">
         <v>69</v>
       </c>
-      <c r="Z153">
+      <c r="Z153" s="4">
         <v>0.88</v>
       </c>
       <c r="AA153">
@@ -22917,7 +22886,7 @@
       <c r="Y154" t="s">
         <v>69</v>
       </c>
-      <c r="Z154">
+      <c r="Z154" s="4">
         <v>0.92</v>
       </c>
       <c r="AA154">
@@ -23060,7 +23029,7 @@
       <c r="Y155" t="s">
         <v>116</v>
       </c>
-      <c r="Z155">
+      <c r="Z155" s="4">
         <v>0.89</v>
       </c>
       <c r="AA155">
@@ -23203,7 +23172,7 @@
       <c r="Y156" t="s">
         <v>69</v>
       </c>
-      <c r="Z156" s="2">
+      <c r="Z156" s="4">
         <v>0.78</v>
       </c>
       <c r="AA156">
@@ -23349,7 +23318,7 @@
       <c r="Y157" t="s">
         <v>116</v>
       </c>
-      <c r="Z157" s="2">
+      <c r="Z157" s="4">
         <v>0.83</v>
       </c>
       <c r="AA157">
@@ -23492,7 +23461,7 @@
       <c r="Y158" t="s">
         <v>69</v>
       </c>
-      <c r="Z158">
+      <c r="Z158" s="4">
         <v>0.87</v>
       </c>
       <c r="AA158">
@@ -23581,7 +23550,7 @@
       <c r="Y159" t="s">
         <v>69</v>
       </c>
-      <c r="Z159">
+      <c r="Z159" s="4">
         <v>0.86</v>
       </c>
       <c r="AA159">
@@ -23670,7 +23639,7 @@
       <c r="Y160" t="s">
         <v>116</v>
       </c>
-      <c r="Z160">
+      <c r="Z160" s="4">
         <v>0.82</v>
       </c>
       <c r="AA160">
@@ -23762,7 +23731,7 @@
       <c r="Y161" t="s">
         <v>69</v>
       </c>
-      <c r="Z161">
+      <c r="Z161" s="4">
         <v>0.95</v>
       </c>
       <c r="AA161">
@@ -23851,7 +23820,7 @@
       <c r="Y162" t="s">
         <v>116</v>
       </c>
-      <c r="Z162">
+      <c r="Z162" s="4">
         <v>0.89</v>
       </c>
       <c r="AA162">
@@ -23943,7 +23912,7 @@
       <c r="Y163" t="s">
         <v>116</v>
       </c>
-      <c r="Z163">
+      <c r="Z163" s="4">
         <v>0.89</v>
       </c>
       <c r="AA163">
@@ -24035,7 +24004,7 @@
       <c r="Y164" t="s">
         <v>69</v>
       </c>
-      <c r="Z164">
+      <c r="Z164" s="4">
         <v>0.8</v>
       </c>
       <c r="AA164">
@@ -24178,7 +24147,7 @@
       <c r="Y165" t="s">
         <v>69</v>
       </c>
-      <c r="Z165">
+      <c r="Z165" s="4">
         <v>0.88</v>
       </c>
       <c r="AA165">
@@ -24321,7 +24290,7 @@
       <c r="Y166" t="s">
         <v>69</v>
       </c>
-      <c r="Z166">
+      <c r="Z166" s="4">
         <v>0.79</v>
       </c>
       <c r="AA166">
@@ -24464,7 +24433,7 @@
       <c r="Y167" t="s">
         <v>69</v>
       </c>
-      <c r="Z167">
+      <c r="Z167" s="4">
         <v>0.84</v>
       </c>
       <c r="AA167">
@@ -24607,7 +24576,7 @@
       <c r="Y168" t="s">
         <v>116</v>
       </c>
-      <c r="Z168">
+      <c r="Z168" s="4">
         <v>0.83</v>
       </c>
       <c r="AA168">
@@ -24753,7 +24722,7 @@
       <c r="Y169" t="s">
         <v>69</v>
       </c>
-      <c r="Z169" s="2">
+      <c r="Z169" s="4">
         <v>0.83</v>
       </c>
       <c r="AA169">
@@ -24896,7 +24865,7 @@
       <c r="Y170" t="s">
         <v>69</v>
       </c>
-      <c r="Z170">
+      <c r="Z170" s="4">
         <v>0.86</v>
       </c>
       <c r="AA170">
@@ -25039,7 +25008,7 @@
       <c r="Y171" t="s">
         <v>69</v>
       </c>
-      <c r="Z171">
+      <c r="Z171" s="4">
         <v>0.86</v>
       </c>
       <c r="AA171">
@@ -25176,7 +25145,7 @@
       <c r="Y172" t="s">
         <v>69</v>
       </c>
-      <c r="Z172">
+      <c r="Z172" s="4">
         <v>0.87</v>
       </c>
       <c r="AA172">
@@ -25319,7 +25288,7 @@
       <c r="Y173" t="s">
         <v>69</v>
       </c>
-      <c r="Z173">
+      <c r="Z173" s="4">
         <v>0.87</v>
       </c>
       <c r="AA173">
@@ -25462,7 +25431,6 @@
       <c r="Y174" t="s">
         <v>69</v>
       </c>
-      <c r="Z174" s="3"/>
       <c r="AA174">
         <v>1.4E-2</v>
       </c>
@@ -25603,7 +25571,6 @@
       <c r="Y175" t="s">
         <v>69</v>
       </c>
-      <c r="Z175" s="3"/>
       <c r="AA175">
         <v>7.8E-2</v>
       </c>
@@ -25744,7 +25711,6 @@
       <c r="Y176" t="s">
         <v>116</v>
       </c>
-      <c r="Z176" s="3"/>
       <c r="AA176">
         <v>-0.106</v>
       </c>
@@ -25885,7 +25851,6 @@
       <c r="Y177" t="s">
         <v>69</v>
       </c>
-      <c r="Z177" s="3"/>
       <c r="AA177">
         <v>0.13</v>
       </c>
@@ -26029,7 +25994,7 @@
       <c r="Y178" t="s">
         <v>69</v>
       </c>
-      <c r="Z178">
+      <c r="Z178" s="4">
         <v>0.88</v>
       </c>
       <c r="AA178">
@@ -26172,7 +26137,7 @@
       <c r="Y179" t="s">
         <v>69</v>
       </c>
-      <c r="Z179">
+      <c r="Z179" s="4">
         <v>0.87</v>
       </c>
       <c r="AA179">
@@ -26315,7 +26280,7 @@
       <c r="Y180" t="s">
         <v>69</v>
       </c>
-      <c r="Z180">
+      <c r="Z180" s="4">
         <v>0.87</v>
       </c>
       <c r="AA180">
@@ -26458,7 +26423,7 @@
       <c r="Y181" t="s">
         <v>69</v>
       </c>
-      <c r="Z181">
+      <c r="Z181" s="4">
         <v>0.87</v>
       </c>
       <c r="AA181">
@@ -26601,7 +26566,7 @@
       <c r="Y182" t="s">
         <v>69</v>
       </c>
-      <c r="Z182">
+      <c r="Z182" s="4">
         <v>0.85</v>
       </c>
       <c r="AA182">
@@ -26744,7 +26709,7 @@
       <c r="Y183" t="s">
         <v>69</v>
       </c>
-      <c r="Z183">
+      <c r="Z183" s="4">
         <v>0.91</v>
       </c>
       <c r="AA183">
@@ -26887,7 +26852,7 @@
       <c r="Y184" t="s">
         <v>116</v>
       </c>
-      <c r="Z184">
+      <c r="Z184" s="4">
         <v>0.92</v>
       </c>
       <c r="AA184">
@@ -27033,7 +26998,7 @@
       <c r="Y185" t="s">
         <v>69</v>
       </c>
-      <c r="Z185">
+      <c r="Z185" s="4">
         <v>0.76</v>
       </c>
       <c r="AA185">
@@ -27179,7 +27144,7 @@
       <c r="Y186" t="s">
         <v>116</v>
       </c>
-      <c r="Z186">
+      <c r="Z186" s="4">
         <v>0.86</v>
       </c>
       <c r="AA186">
@@ -27322,7 +27287,7 @@
       <c r="Y187" t="s">
         <v>116</v>
       </c>
-      <c r="Z187">
+      <c r="Z187" s="4">
         <v>0.91</v>
       </c>
       <c r="AI187">
@@ -27402,7 +27367,7 @@
       <c r="Y188" t="s">
         <v>116</v>
       </c>
-      <c r="Z188">
+      <c r="Z188" s="4">
         <v>0.83</v>
       </c>
       <c r="AI188">
@@ -27482,7 +27447,7 @@
       <c r="Y189" t="s">
         <v>69</v>
       </c>
-      <c r="Z189">
+      <c r="Z189" s="4">
         <v>0.77</v>
       </c>
       <c r="AA189">
@@ -27628,7 +27593,7 @@
       <c r="Y190" t="s">
         <v>69</v>
       </c>
-      <c r="Z190">
+      <c r="Z190" s="4">
         <v>0.89</v>
       </c>
       <c r="AA190">
@@ -27774,7 +27739,7 @@
       <c r="Y191" t="s">
         <v>69</v>
       </c>
-      <c r="Z191">
+      <c r="Z191" s="4">
         <v>0.84</v>
       </c>
       <c r="AK191">
@@ -27848,7 +27813,7 @@
       <c r="Y192" t="s">
         <v>69</v>
       </c>
-      <c r="Z192">
+      <c r="Z192" s="4">
         <v>0.84</v>
       </c>
       <c r="AK192">
@@ -27928,7 +27893,7 @@
       <c r="Y193" t="s">
         <v>69</v>
       </c>
-      <c r="Z193">
+      <c r="Z193" s="4">
         <v>0.78</v>
       </c>
       <c r="AG193">
@@ -28014,7 +27979,7 @@
       <c r="Y194" t="s">
         <v>69</v>
       </c>
-      <c r="Z194">
+      <c r="Z194" s="4">
         <v>0.92</v>
       </c>
       <c r="AG194">
@@ -28097,7 +28062,7 @@
       <c r="Y195" t="s">
         <v>69</v>
       </c>
-      <c r="Z195">
+      <c r="Z195" s="4">
         <v>0.88</v>
       </c>
       <c r="AA195">
@@ -28234,7 +28199,7 @@
       <c r="Y196" t="s">
         <v>69</v>
       </c>
-      <c r="Z196">
+      <c r="Z196" s="4">
         <v>0.85</v>
       </c>
       <c r="AA196">
@@ -28377,7 +28342,7 @@
       <c r="Y197" t="s">
         <v>116</v>
       </c>
-      <c r="Z197">
+      <c r="Z197" s="4">
         <v>0.85</v>
       </c>
       <c r="AA197">
@@ -28520,7 +28485,7 @@
       <c r="Y198" t="s">
         <v>116</v>
       </c>
-      <c r="Z198">
+      <c r="Z198" s="4">
         <v>0.74</v>
       </c>
       <c r="AA198">
@@ -28663,7 +28628,7 @@
       <c r="Y199" t="s">
         <v>116</v>
       </c>
-      <c r="Z199">
+      <c r="Z199" s="4">
         <v>0.82</v>
       </c>
       <c r="AA199">
@@ -28806,7 +28771,7 @@
       <c r="Y200" t="s">
         <v>116</v>
       </c>
-      <c r="Z200">
+      <c r="Z200" s="4">
         <v>0.85</v>
       </c>
       <c r="AA200">
@@ -28955,7 +28920,7 @@
       <c r="Y201" t="s">
         <v>69</v>
       </c>
-      <c r="Z201">
+      <c r="Z201" s="4">
         <v>0.9</v>
       </c>
       <c r="AA201">
@@ -29101,7 +29066,7 @@
       <c r="Y202" t="s">
         <v>69</v>
       </c>
-      <c r="Z202">
+      <c r="Z202" s="4">
         <v>0.86</v>
       </c>
       <c r="AA202">
@@ -29247,7 +29212,7 @@
       <c r="Y203" t="s">
         <v>116</v>
       </c>
-      <c r="Z203">
+      <c r="Z203" s="4">
         <v>0.87</v>
       </c>
       <c r="AA203">
@@ -29396,7 +29361,7 @@
       <c r="Y204" t="s">
         <v>69</v>
       </c>
-      <c r="Z204">
+      <c r="Z204" s="4">
         <v>0.88</v>
       </c>
       <c r="AA204">
@@ -29536,7 +29501,7 @@
       <c r="Y205" t="s">
         <v>69</v>
       </c>
-      <c r="Z205">
+      <c r="Z205" s="4">
         <v>0.96</v>
       </c>
       <c r="AA205">
@@ -29679,7 +29644,7 @@
       <c r="Y206" t="s">
         <v>69</v>
       </c>
-      <c r="Z206">
+      <c r="Z206" s="4">
         <v>0.92</v>
       </c>
       <c r="AA206">
@@ -29822,7 +29787,7 @@
       <c r="Y207" t="s">
         <v>69</v>
       </c>
-      <c r="Z207">
+      <c r="Z207" s="4">
         <v>0.84</v>
       </c>
       <c r="AA207">
@@ -29965,7 +29930,7 @@
       <c r="Y208" t="s">
         <v>69</v>
       </c>
-      <c r="Z208">
+      <c r="Z208" s="4">
         <v>0.9</v>
       </c>
       <c r="AA208">
@@ -30108,7 +30073,7 @@
       <c r="Y209" t="s">
         <v>69</v>
       </c>
-      <c r="Z209">
+      <c r="Z209" s="4">
         <v>0.85</v>
       </c>
       <c r="AA209">
@@ -30251,7 +30216,7 @@
       <c r="Y210" t="s">
         <v>116</v>
       </c>
-      <c r="Z210">
+      <c r="Z210" s="4">
         <v>0.75</v>
       </c>
       <c r="AA210">
@@ -30394,7 +30359,7 @@
       <c r="Y211" t="s">
         <v>116</v>
       </c>
-      <c r="Z211">
+      <c r="Z211" s="4">
         <v>0.79</v>
       </c>
       <c r="AA211">
@@ -30537,7 +30502,7 @@
       <c r="Y212" t="s">
         <v>116</v>
       </c>
-      <c r="Z212">
+      <c r="Z212" s="4">
         <v>0.75</v>
       </c>
       <c r="AA212">
@@ -30680,7 +30645,7 @@
       <c r="Y213" t="s">
         <v>116</v>
       </c>
-      <c r="Z213">
+      <c r="Z213" s="4">
         <v>0.77</v>
       </c>
       <c r="AA213">
@@ -30823,7 +30788,7 @@
       <c r="Y214" t="s">
         <v>69</v>
       </c>
-      <c r="Z214">
+      <c r="Z214" s="4">
         <v>0.84</v>
       </c>
       <c r="AA214">
@@ -30966,7 +30931,7 @@
       <c r="Y215" t="s">
         <v>69</v>
       </c>
-      <c r="Z215">
+      <c r="Z215" s="4">
         <v>0.74</v>
       </c>
       <c r="AB215">
@@ -31052,7 +31017,7 @@
       <c r="Y216" t="s">
         <v>69</v>
       </c>
-      <c r="Z216">
+      <c r="Z216" s="4">
         <v>0.74</v>
       </c>
       <c r="AB216">
@@ -31138,7 +31103,7 @@
       <c r="Y217" t="s">
         <v>69</v>
       </c>
-      <c r="Z217">
+      <c r="Z217" s="4">
         <v>0.86</v>
       </c>
       <c r="AA217">
@@ -31281,7 +31246,7 @@
       <c r="Y218" t="s">
         <v>69</v>
       </c>
-      <c r="Z218">
+      <c r="Z218" s="4">
         <v>0.85</v>
       </c>
       <c r="AA218">
@@ -31424,7 +31389,7 @@
       <c r="Y219" t="s">
         <v>69</v>
       </c>
-      <c r="Z219">
+      <c r="Z219" s="4">
         <v>0.91</v>
       </c>
       <c r="AA219">
@@ -31570,7 +31535,6 @@
       <c r="Y220" t="s">
         <v>116</v>
       </c>
-      <c r="Z220" s="3"/>
       <c r="AA220">
         <v>0.15</v>
       </c>
@@ -31708,7 +31672,7 @@
       <c r="Y221" t="s">
         <v>69</v>
       </c>
-      <c r="Z221">
+      <c r="Z221" s="4">
         <v>0.9</v>
       </c>
       <c r="AA221">
@@ -31848,7 +31812,7 @@
       <c r="Y222" t="s">
         <v>69</v>
       </c>
-      <c r="Z222">
+      <c r="Z222" s="4">
         <v>0.9</v>
       </c>
       <c r="AA222">
@@ -31988,7 +31952,7 @@
       <c r="Y223" t="s">
         <v>69</v>
       </c>
-      <c r="Z223">
+      <c r="Z223" s="4">
         <v>0.9</v>
       </c>
       <c r="AA223">
@@ -32137,7 +32101,7 @@
       <c r="Y224" t="s">
         <v>69</v>
       </c>
-      <c r="Z224">
+      <c r="Z224" s="4">
         <v>0.87</v>
       </c>
       <c r="AA224">
@@ -32286,7 +32250,6 @@
       <c r="Y225" t="s">
         <v>69</v>
       </c>
-      <c r="Z225" s="3"/>
       <c r="AA225">
         <v>0.12</v>
       </c>
@@ -32424,7 +32387,7 @@
       <c r="Y226" t="s">
         <v>69</v>
       </c>
-      <c r="Z226">
+      <c r="Z226" s="4">
         <v>0.95</v>
       </c>
       <c r="AA226">
@@ -32564,7 +32527,7 @@
       <c r="Y227" t="s">
         <v>69</v>
       </c>
-      <c r="Z227">
+      <c r="Z227" s="4">
         <v>0.94</v>
       </c>
       <c r="AA227">
@@ -32716,7 +32679,7 @@
       <c r="Y228" t="s">
         <v>69</v>
       </c>
-      <c r="Z228">
+      <c r="Z228" s="4">
         <v>0.86</v>
       </c>
       <c r="AA228">
@@ -32859,7 +32822,7 @@
       <c r="Y229" t="s">
         <v>69</v>
       </c>
-      <c r="Z229">
+      <c r="Z229" s="4">
         <v>0.85</v>
       </c>
       <c r="AA229">
@@ -33005,7 +32968,7 @@
       <c r="Y230" t="s">
         <v>69</v>
       </c>
-      <c r="Z230">
+      <c r="Z230" s="4">
         <v>0.88</v>
       </c>
       <c r="AB230">
@@ -33103,7 +33066,7 @@
       <c r="Y231" t="s">
         <v>69</v>
       </c>
-      <c r="Z231">
+      <c r="Z231" s="4">
         <v>0.77</v>
       </c>
       <c r="AA231">
@@ -33246,7 +33209,7 @@
       <c r="Y232" t="s">
         <v>116</v>
       </c>
-      <c r="Z232">
+      <c r="Z232" s="4">
         <v>0.92</v>
       </c>
       <c r="AA232">
@@ -33386,7 +33349,7 @@
       <c r="Y233" t="s">
         <v>116</v>
       </c>
-      <c r="Z233">
+      <c r="Z233" s="4">
         <v>0.93</v>
       </c>
       <c r="AA233">
@@ -33532,7 +33495,7 @@
       <c r="Y234" t="s">
         <v>69</v>
       </c>
-      <c r="Z234">
+      <c r="Z234" s="4">
         <v>0.93</v>
       </c>
       <c r="AA234">
@@ -33681,7 +33644,7 @@
       <c r="Y235" t="s">
         <v>69</v>
       </c>
-      <c r="Z235">
+      <c r="Z235" s="4">
         <v>0.81</v>
       </c>
       <c r="AA235">
@@ -33824,7 +33787,7 @@
       <c r="Y236" t="s">
         <v>69</v>
       </c>
-      <c r="Z236">
+      <c r="Z236" s="4">
         <v>0.89</v>
       </c>
       <c r="AA236">
@@ -33967,7 +33930,7 @@
       <c r="Y237" t="s">
         <v>116</v>
       </c>
-      <c r="Z237">
+      <c r="Z237" s="4">
         <v>0.88</v>
       </c>
       <c r="AA237">
@@ -34110,7 +34073,6 @@
       <c r="Y238" t="s">
         <v>69</v>
       </c>
-      <c r="Z238" s="3"/>
       <c r="AG238">
         <v>0.52900000000000003</v>
       </c>
@@ -34188,7 +34150,7 @@
       <c r="Y239" t="s">
         <v>69</v>
       </c>
-      <c r="Z239">
+      <c r="Z239" s="4">
         <v>0.94</v>
       </c>
       <c r="AA239">
@@ -34334,7 +34296,7 @@
       <c r="Y240" t="s">
         <v>116</v>
       </c>
-      <c r="Z240">
+      <c r="Z240" s="4">
         <v>0.95</v>
       </c>
       <c r="AA240">
@@ -34480,7 +34442,6 @@
       <c r="Y241" t="s">
         <v>69</v>
       </c>
-      <c r="Z241" s="3"/>
       <c r="AE241">
         <v>0.38</v>
       </c>
@@ -34561,7 +34522,6 @@
       <c r="Y242" t="s">
         <v>69</v>
       </c>
-      <c r="Z242" s="3"/>
       <c r="AM242">
         <v>0.4</v>
       </c>
@@ -34639,7 +34599,7 @@
       <c r="Y243" t="s">
         <v>69</v>
       </c>
-      <c r="Z243">
+      <c r="Z243" s="4">
         <v>0.87</v>
       </c>
       <c r="AA243">
@@ -34788,7 +34748,7 @@
       <c r="Y244" t="s">
         <v>69</v>
       </c>
-      <c r="Z244">
+      <c r="Z244" s="4">
         <v>0.95</v>
       </c>
       <c r="AA244">
@@ -34931,7 +34891,7 @@
       <c r="Y245" t="s">
         <v>69</v>
       </c>
-      <c r="Z245">
+      <c r="Z245" s="4">
         <v>0.9</v>
       </c>
       <c r="AA245">
@@ -35077,7 +35037,7 @@
       <c r="Y246" t="s">
         <v>116</v>
       </c>
-      <c r="Z246">
+      <c r="Z246" s="4">
         <v>0.86</v>
       </c>
       <c r="AA246">
@@ -35217,7 +35177,7 @@
       <c r="Y247" t="s">
         <v>69</v>
       </c>
-      <c r="Z247">
+      <c r="Z247" s="4">
         <v>0.96</v>
       </c>
       <c r="AA247">
@@ -35360,7 +35320,7 @@
       <c r="Y248" t="s">
         <v>69</v>
       </c>
-      <c r="Z248">
+      <c r="Z248" s="4">
         <v>0.85</v>
       </c>
       <c r="AA248">
@@ -35500,7 +35460,7 @@
       <c r="Y249" t="s">
         <v>69</v>
       </c>
-      <c r="Z249">
+      <c r="Z249" s="4">
         <v>0.81</v>
       </c>
       <c r="AA249">
@@ -35643,7 +35603,7 @@
       <c r="Y250" t="s">
         <v>116</v>
       </c>
-      <c r="Z250">
+      <c r="Z250" s="4">
         <v>0.7</v>
       </c>
       <c r="AC250">
@@ -35729,7 +35689,7 @@
       <c r="Y251" t="s">
         <v>116</v>
       </c>
-      <c r="Z251">
+      <c r="Z251" s="4">
         <v>0.92</v>
       </c>
       <c r="AC251">
@@ -35815,7 +35775,7 @@
       <c r="Y252" t="s">
         <v>116</v>
       </c>
-      <c r="Z252">
+      <c r="Z252" s="4">
         <v>0.88</v>
       </c>
       <c r="AA252">
@@ -35958,7 +35918,7 @@
       <c r="Y253" t="s">
         <v>69</v>
       </c>
-      <c r="Z253">
+      <c r="Z253" s="4">
         <v>0.61</v>
       </c>
       <c r="AA253">
@@ -36104,7 +36064,7 @@
       <c r="Y254" t="s">
         <v>116</v>
       </c>
-      <c r="Z254">
+      <c r="Z254" s="4">
         <v>0.86</v>
       </c>
       <c r="AA254">
@@ -36250,7 +36210,7 @@
       <c r="Y255" t="s">
         <v>69</v>
       </c>
-      <c r="Z255">
+      <c r="Z255" s="4">
         <v>0.69</v>
       </c>
       <c r="AA255">
@@ -36396,7 +36356,7 @@
       <c r="Y256" t="s">
         <v>116</v>
       </c>
-      <c r="Z256">
+      <c r="Z256" s="4">
         <v>0.73</v>
       </c>
       <c r="AA256">
@@ -36497,7 +36457,7 @@
       <c r="H257" t="s">
         <v>1310</v>
       </c>
-      <c r="I257" s="4" t="s">
+      <c r="I257" s="2" t="s">
         <v>1311</v>
       </c>
       <c r="J257" t="s">
@@ -36539,7 +36499,7 @@
       <c r="Y257" t="s">
         <v>69</v>
       </c>
-      <c r="Z257">
+      <c r="Z257" s="4">
         <v>0.9</v>
       </c>
       <c r="AM257">
@@ -36616,7 +36576,7 @@
       <c r="Y258" t="s">
         <v>69</v>
       </c>
-      <c r="Z258">
+      <c r="Z258" s="4">
         <v>0.93</v>
       </c>
       <c r="AA258">
@@ -36762,7 +36722,7 @@
       <c r="Y259" t="s">
         <v>69</v>
       </c>
-      <c r="Z259">
+      <c r="Z259" s="4">
         <v>0.93</v>
       </c>
       <c r="AA259">
@@ -36911,7 +36871,7 @@
       <c r="Y260" t="s">
         <v>69</v>
       </c>
-      <c r="Z260">
+      <c r="Z260" s="4">
         <v>0.78</v>
       </c>
       <c r="AC260">
@@ -36988,7 +36948,6 @@
       <c r="Y261" t="s">
         <v>69</v>
       </c>
-      <c r="Z261" s="3"/>
       <c r="AX261">
         <v>0.46</v>
       </c>
@@ -37054,7 +37013,7 @@
       <c r="Y262" t="s">
         <v>69</v>
       </c>
-      <c r="Z262">
+      <c r="Z262" s="4">
         <v>0.85</v>
       </c>
       <c r="AX262">
@@ -37128,7 +37087,7 @@
       <c r="Y263" t="s">
         <v>116</v>
       </c>
-      <c r="Z263">
+      <c r="Z263" s="4">
         <v>0.86</v>
       </c>
       <c r="AX263">
@@ -37202,7 +37161,7 @@
       <c r="Y264" t="s">
         <v>69</v>
       </c>
-      <c r="Z264">
+      <c r="Z264" s="4">
         <v>0.95</v>
       </c>
       <c r="AA264">
@@ -37303,7 +37262,7 @@
       <c r="H265" t="s">
         <v>1357</v>
       </c>
-      <c r="I265" s="4" t="s">
+      <c r="I265" s="2" t="s">
         <v>1358</v>
       </c>
       <c r="J265" t="s">
@@ -37348,7 +37307,7 @@
       <c r="Y265" t="s">
         <v>116</v>
       </c>
-      <c r="Z265">
+      <c r="Z265" s="4">
         <v>0.9</v>
       </c>
       <c r="AA265">
@@ -37491,7 +37450,7 @@
       <c r="Y266" t="s">
         <v>69</v>
       </c>
-      <c r="Z266">
+      <c r="Z266" s="4">
         <v>0.97</v>
       </c>
       <c r="AA266">
@@ -37637,7 +37596,7 @@
       <c r="Y267" t="s">
         <v>116</v>
       </c>
-      <c r="Z267">
+      <c r="Z267" s="4">
         <v>0.91</v>
       </c>
       <c r="AA267">
@@ -37738,7 +37697,7 @@
       <c r="H268" t="s">
         <v>1371</v>
       </c>
-      <c r="I268" s="4" t="s">
+      <c r="I268" s="2" t="s">
         <v>1372</v>
       </c>
       <c r="J268" t="s">
@@ -37780,7 +37739,7 @@
       <c r="Y268" t="s">
         <v>69</v>
       </c>
-      <c r="Z268">
+      <c r="Z268" s="4">
         <v>0.87</v>
       </c>
       <c r="AA268">
@@ -37923,7 +37882,7 @@
       <c r="Y269" t="s">
         <v>69</v>
       </c>
-      <c r="Z269">
+      <c r="Z269" s="4">
         <v>0.84</v>
       </c>
       <c r="AA269">
@@ -38066,7 +38025,7 @@
       <c r="Y270" t="s">
         <v>116</v>
       </c>
-      <c r="Z270">
+      <c r="Z270" s="4">
         <v>0.8</v>
       </c>
       <c r="AA270">
@@ -38209,7 +38168,7 @@
       <c r="Y271" t="s">
         <v>69</v>
       </c>
-      <c r="Z271">
+      <c r="Z271" s="4">
         <v>0.77</v>
       </c>
       <c r="AA271">
@@ -38310,7 +38269,7 @@
       <c r="H272" t="s">
         <v>1379</v>
       </c>
-      <c r="I272" s="4" t="s">
+      <c r="I272" s="2" t="s">
         <v>1380</v>
       </c>
       <c r="J272" t="s">
@@ -38352,7 +38311,7 @@
       <c r="Y272" t="s">
         <v>69</v>
       </c>
-      <c r="Z272">
+      <c r="Z272" s="4">
         <v>0.85</v>
       </c>
       <c r="AA272">
@@ -38495,7 +38454,7 @@
       <c r="Y273" t="s">
         <v>69</v>
       </c>
-      <c r="Z273">
+      <c r="Z273" s="4">
         <v>0.87</v>
       </c>
       <c r="AA273">
@@ -38638,7 +38597,7 @@
       <c r="Y274" t="s">
         <v>69</v>
       </c>
-      <c r="Z274">
+      <c r="Z274" s="4">
         <v>0.85</v>
       </c>
       <c r="AA274">
@@ -38778,7 +38737,7 @@
       <c r="Y275" t="s">
         <v>116</v>
       </c>
-      <c r="Z275">
+      <c r="Z275" s="4">
         <v>0.8</v>
       </c>
       <c r="AA275">
@@ -38918,7 +38877,7 @@
       <c r="Y276" t="s">
         <v>116</v>
       </c>
-      <c r="Z276">
+      <c r="Z276" s="4">
         <v>0.8</v>
       </c>
       <c r="AA276">
@@ -39058,7 +39017,7 @@
       <c r="Y277" t="s">
         <v>116</v>
       </c>
-      <c r="Z277">
+      <c r="Z277" s="4">
         <v>0.85</v>
       </c>
       <c r="AA277">
@@ -39198,7 +39157,7 @@
       <c r="Y278" t="s">
         <v>116</v>
       </c>
-      <c r="Z278">
+      <c r="Z278" s="4">
         <v>0.85</v>
       </c>
       <c r="AA278">
@@ -39338,7 +39297,7 @@
       <c r="Y279" t="s">
         <v>116</v>
       </c>
-      <c r="Z279">
+      <c r="Z279" s="4">
         <v>0.72</v>
       </c>
       <c r="AA279">
@@ -39478,7 +39437,7 @@
       <c r="Y280" t="s">
         <v>116</v>
       </c>
-      <c r="Z280">
+      <c r="Z280" s="4">
         <v>0.72</v>
       </c>
       <c r="AA280">
@@ -39618,7 +39577,7 @@
       <c r="Y281" t="s">
         <v>116</v>
       </c>
-      <c r="Z281">
+      <c r="Z281" s="4">
         <v>0.69</v>
       </c>
       <c r="AA281">
@@ -39758,7 +39717,7 @@
       <c r="Y282" t="s">
         <v>116</v>
       </c>
-      <c r="Z282">
+      <c r="Z282" s="4">
         <v>0.69</v>
       </c>
       <c r="AA282">
@@ -39859,7 +39818,7 @@
       <c r="H283" t="s">
         <v>1397</v>
       </c>
-      <c r="I283" s="4" t="s">
+      <c r="I283" s="2" t="s">
         <v>1398</v>
       </c>
       <c r="J283" t="s">
@@ -39904,7 +39863,7 @@
       <c r="Y283" t="s">
         <v>116</v>
       </c>
-      <c r="Z283">
+      <c r="Z283" s="4">
         <v>0.97</v>
       </c>
       <c r="AB283">
@@ -39948,7 +39907,7 @@
       <c r="H284" t="s">
         <v>1407</v>
       </c>
-      <c r="I284" s="4" t="s">
+      <c r="I284" s="2" t="s">
         <v>1408</v>
       </c>
       <c r="J284" t="s">
@@ -39993,7 +39952,7 @@
       <c r="Y284" t="s">
         <v>69</v>
       </c>
-      <c r="Z284">
+      <c r="Z284" s="4">
         <v>1</v>
       </c>
       <c r="AD284">
@@ -40070,7 +40029,7 @@
       <c r="Y285" t="s">
         <v>69</v>
       </c>
-      <c r="Z285">
+      <c r="Z285" s="4">
         <v>0.83</v>
       </c>
       <c r="AD285">
